--- a/Running projects/Gul Ahmed Energy Limited/VO/01- variation order for spare parts - GREE.xlsx
+++ b/Running projects/Gul Ahmed Energy Limited/VO/01- variation order for spare parts - GREE.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC40077-1E6F-4536-934A-B709EE638FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC91FE2-CFF8-451C-891C-B7D1392559F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,6 +514,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>211047</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3DE1BD-3A1E-64ED-7F53-0CCC35BB1B50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="428625"/>
+          <a:ext cx="10726647" cy="8897592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -811,7 +855,7 @@
   <dimension ref="A7:Q43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,8 +976,8 @@
         <v>2330500</v>
       </c>
       <c r="D26" s="19">
-        <f>C26*28%</f>
-        <v>652540.00000000012</v>
+        <f>C26*10%</f>
+        <v>233050</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>13</v>
@@ -943,7 +987,7 @@
       </c>
       <c r="G26" s="18">
         <f>D26+C26</f>
-        <v>2983040</v>
+        <v>2563550</v>
       </c>
       <c r="J26" s="40" t="s">
         <v>18</v>
@@ -967,7 +1011,7 @@
       <c r="F27" s="39"/>
       <c r="G27" s="31">
         <f>SUM(G26:G26)</f>
-        <v>2983040</v>
+        <v>2563550</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="30"/>
